--- a/upload/scm_po_converted.xlsx
+++ b/upload/scm_po_converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Customer PO No.</t>
   </si>
@@ -119,13 +119,19 @@
     <t>Shipping Method</t>
   </si>
   <si>
-    <t>991VILLA-S</t>
+    <t>xxxxxxxxxxx</t>
   </si>
   <si>
     <t>PEN</t>
   </si>
   <si>
-    <t>WD9PVC4S6.APTGLGP</t>
+    <t>RNC5.DPERLLK</t>
+  </si>
+  <si>
+    <t>TIENDAS DEL MEJORAMIENTO DEL HOGAR S.A. - Sodimac test</t>
+  </si>
+  <si>
+    <t>RNC9.DPERLLK</t>
   </si>
 </sst>
 </file>
@@ -579,7 +585,7 @@
     </row>
     <row r="2" spans="1:34">
       <c r="A2">
-        <v>4244155</v>
+        <v>4285202</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -588,16 +594,16 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>20240417</v>
+        <v>20240615</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>1565.36</v>
+        <v>675.56</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -605,7 +611,7 @@
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2">
-        <v>20240409</v>
+        <v>20240606</v>
       </c>
       <c r="N2"/>
       <c r="O2"/>
@@ -619,7 +625,9 @@
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
-      <c r="Z2"/>
+      <c r="Z2" t="s">
+        <v>37</v>
+      </c>
       <c r="AA2"/>
       <c r="AB2"/>
       <c r="AC2"/>
@@ -631,7 +639,7 @@
     </row>
     <row r="3" spans="1:34">
       <c r="A3">
-        <v>4244156</v>
+        <v>4285202</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -640,16 +648,16 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>20240417</v>
+        <v>20240615</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F3">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>1565.36</v>
+        <v>1067.08</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -657,7 +665,7 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3">
-        <v>20240409</v>
+        <v>20240606</v>
       </c>
       <c r="N3"/>
       <c r="O3"/>
@@ -671,7 +679,9 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
-      <c r="Z3"/>
+      <c r="Z3" t="s">
+        <v>37</v>
+      </c>
       <c r="AA3"/>
       <c r="AB3"/>
       <c r="AC3"/>
